--- a/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Publication type.xlsx
+++ b/de.bund.bfr.knime.fsklab.nodes/resources/vocabularies/Publication type.xlsx
@@ -12,507 +12,522 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="172">
   <si>
     <t/>
   </si>
   <si>
-    <t>Value</t>
+    <t>REFERENCE TYPE</t>
+  </si>
+  <si>
+    <t>FIELD NAME</t>
   </si>
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Academic Article</t>
-  </si>
-  <si>
-    <t>Publication type_1</t>
-  </si>
-  <si>
-    <t>A scholarly academic article, typically published in a journal.</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>Publication type_2</t>
-  </si>
-  <si>
-    <t>A written composition in prose, usually nonfiction, on a specific topic, forming an independent part of a book or other publication, as a newspaper or magazine.</t>
-  </si>
-  <si>
-    <t>Audio document</t>
-  </si>
-  <si>
-    <t>Publication type_3</t>
-  </si>
-  <si>
-    <t>An audio document; aka record.</t>
-  </si>
-  <si>
-    <t>Audio-visual document</t>
-  </si>
-  <si>
-    <t>Publication type_4</t>
-  </si>
-  <si>
-    <t>An audio-visual document; film, video, and so forth.</t>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>ABST</t>
+  </si>
+  <si>
+    <t>PublicationType_2</t>
+  </si>
+  <si>
+    <t>Aggregated Database</t>
+  </si>
+  <si>
+    <t>AGGR</t>
+  </si>
+  <si>
+    <t>PublicationType_3</t>
+  </si>
+  <si>
+    <t>Ancient Text</t>
+  </si>
+  <si>
+    <t>ANCIENT</t>
+  </si>
+  <si>
+    <t>PublicationType_4</t>
+  </si>
+  <si>
+    <t>Artwork</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>PublicationType_5</t>
+  </si>
+  <si>
+    <t>Audiovisual Material</t>
+  </si>
+  <si>
+    <t>ADVS</t>
+  </si>
+  <si>
+    <t>PublicationType_6</t>
   </si>
   <si>
     <t>Bill</t>
   </si>
   <si>
-    <t>Publication type_5</t>
-  </si>
-  <si>
-    <t>Draft legislation presented for discussion to a legal body.</t>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>PublicationType_7</t>
+  </si>
+  <si>
+    <t>Blog</t>
+  </si>
+  <si>
+    <t>BLOG</t>
+  </si>
+  <si>
+    <t>PublicationType_8</t>
   </si>
   <si>
     <t>Book</t>
   </si>
   <si>
-    <t>Publication type_6</t>
-  </si>
-  <si>
-    <t>A written or printed work of fiction or nonfiction, usually on sheets of paper fastened or bound together within covers.</t>
+    <t>BOOK</t>
+  </si>
+  <si>
+    <t>PublicationType_9</t>
   </si>
   <si>
     <t>Book Section</t>
   </si>
   <si>
-    <t>Publication type_7</t>
-  </si>
-  <si>
-    <t>A section of a book.</t>
-  </si>
-  <si>
-    <t>Brief</t>
-  </si>
-  <si>
-    <t>Publication type_8</t>
-  </si>
-  <si>
-    <t>A written argument submitted to a court.</t>
-  </si>
-  <si>
-    <t>Chapter</t>
-  </si>
-  <si>
-    <t>Publication type_9</t>
-  </si>
-  <si>
-    <t>A chapter of a book.</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Publication type_10</t>
-  </si>
-  <si>
-    <t>A collection of statutes.</t>
-  </si>
-  <si>
-    <t>Collected Document</t>
-  </si>
-  <si>
-    <t>Publication type_11</t>
-  </si>
-  <si>
-    <t>A document that simultaneously contains other documents.</t>
-  </si>
-  <si>
-    <t>Collection</t>
-  </si>
-  <si>
-    <t>Publication type_12</t>
-  </si>
-  <si>
-    <t>A collection of Documents or Collections</t>
-  </si>
-  <si>
-    <t>Conference</t>
-  </si>
-  <si>
-    <t>Publication type_13</t>
-  </si>
-  <si>
-    <t>A meeting for consultation or discussion.</t>
-  </si>
-  <si>
-    <t>Court Reporter</t>
-  </si>
-  <si>
-    <t>Publication type_14</t>
-  </si>
-  <si>
-    <t>A collection of legal cases.</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Publication type_15</t>
-  </si>
-  <si>
-    <t>A document (noun) is a bounded physical representation of body of information designed with the capacity (and usually intent) to communicate. A document may manifest symbolic, diagrammatic or sensory-representational information.</t>
-  </si>
-  <si>
-    <t>Document part</t>
-  </si>
-  <si>
-    <t>Publication type_16</t>
-  </si>
-  <si>
-    <t>A distinct part of a larger document or collected document.</t>
+    <t>CHAP</t>
+  </si>
+  <si>
+    <t>PublicationType_10</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>CASE</t>
+  </si>
+  <si>
+    <t>PublicationType_11</t>
+  </si>
+  <si>
+    <t>Catalog</t>
+  </si>
+  <si>
+    <t>CTLG</t>
+  </si>
+  <si>
+    <t>PublicationType_12</t>
+  </si>
+  <si>
+    <t>Chart</t>
+  </si>
+  <si>
+    <t>CHART</t>
+  </si>
+  <si>
+    <t>PublicationType_13</t>
+  </si>
+  <si>
+    <t>Classical Work</t>
+  </si>
+  <si>
+    <t>CLSWK</t>
+  </si>
+  <si>
+    <t>PublicationType_14</t>
+  </si>
+  <si>
+    <t>Computer Program</t>
+  </si>
+  <si>
+    <t>COMP</t>
+  </si>
+  <si>
+    <t>PublicationType_15</t>
+  </si>
+  <si>
+    <t>Conference Paper</t>
+  </si>
+  <si>
+    <t>CPAPER</t>
+  </si>
+  <si>
+    <t>PublicationType_16</t>
+  </si>
+  <si>
+    <t>Conference Proceeding</t>
+  </si>
+  <si>
+    <t>CONF</t>
+  </si>
+  <si>
+    <t>PublicationType_17</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>PublicationType_18</t>
+  </si>
+  <si>
+    <t>Dictionary</t>
+  </si>
+  <si>
+    <t>DICT</t>
+  </si>
+  <si>
+    <t>PublicationType_19</t>
   </si>
   <si>
     <t>Edited Book</t>
   </si>
   <si>
-    <t>Publication type_17</t>
-  </si>
-  <si>
-    <t>An edited book.</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Publication type_18</t>
-  </si>
-  <si>
-    <t>A written communication addressed to a person or organization and transmitted electronically.</t>
-  </si>
-  <si>
-    <t>Excerpt</t>
-  </si>
-  <si>
-    <t>Publication type_19</t>
-  </si>
-  <si>
-    <t>A passage selected from a larger work.</t>
-  </si>
-  <si>
-    <t>Film</t>
-  </si>
-  <si>
-    <t>Publication type_20</t>
-  </si>
-  <si>
-    <t>Aka movie.</t>
+    <t>EDBOOK</t>
+  </si>
+  <si>
+    <t>PublicationType_20</t>
+  </si>
+  <si>
+    <t>Electronic Article</t>
+  </si>
+  <si>
+    <t>EJOUR</t>
+  </si>
+  <si>
+    <t>PublicationType_23</t>
+  </si>
+  <si>
+    <t>Electronic Book</t>
+  </si>
+  <si>
+    <t>EBOOK</t>
+  </si>
+  <si>
+    <t>PublicationType_21</t>
+  </si>
+  <si>
+    <t>Electronic Book Section</t>
+  </si>
+  <si>
+    <t>ECHAP</t>
+  </si>
+  <si>
+    <t>PublicationType_22</t>
+  </si>
+  <si>
+    <t>Encyclopedia</t>
+  </si>
+  <si>
+    <t>ENCYC</t>
+  </si>
+  <si>
+    <t>PublicationType_24</t>
+  </si>
+  <si>
+    <t>Equation</t>
+  </si>
+  <si>
+    <t>EQUA</t>
+  </si>
+  <si>
+    <t>PublicationType_25</t>
+  </si>
+  <si>
+    <t>Figure</t>
+  </si>
+  <si>
+    <t>FIGURE</t>
+  </si>
+  <si>
+    <t>PublicationType_26</t>
+  </si>
+  <si>
+    <t>Film or Broadcast</t>
+  </si>
+  <si>
+    <t>MPCT</t>
+  </si>
+  <si>
+    <t>PublicationType_27</t>
+  </si>
+  <si>
+    <t>Full Journal</t>
+  </si>
+  <si>
+    <t>JFULL</t>
+  </si>
+  <si>
+    <t>PublicationType_28</t>
+  </si>
+  <si>
+    <t>Generic</t>
+  </si>
+  <si>
+    <t>GEN</t>
+  </si>
+  <si>
+    <t>PublicationType_1</t>
+  </si>
+  <si>
+    <t>Government Document</t>
+  </si>
+  <si>
+    <t>GOVDOC</t>
+  </si>
+  <si>
+    <t>PublicationType_29</t>
+  </si>
+  <si>
+    <t>Grant</t>
+  </si>
+  <si>
+    <t>GRNT</t>
+  </si>
+  <si>
+    <t>PublicationType_30</t>
   </si>
   <si>
     <t>Hearing</t>
   </si>
   <si>
-    <t>Publication type_21</t>
-  </si>
-  <si>
-    <t>An instance or a session in which testimony and arguments are presented, esp. before an official, as a judge in a lawsuit.</t>
-  </si>
-  <si>
-    <t>Image</t>
-  </si>
-  <si>
-    <t>Publication type_22</t>
-  </si>
-  <si>
-    <t>A document that presents visual or diagrammatic information.</t>
-  </si>
-  <si>
-    <t>Interview</t>
-  </si>
-  <si>
-    <t>Publication type_23</t>
-  </si>
-  <si>
-    <t>A formalized discussion between two or more people.</t>
-  </si>
-  <si>
-    <t>Issue</t>
-  </si>
-  <si>
-    <t>Publication type_24</t>
-  </si>
-  <si>
-    <t>Something that is printed or published and distributed, esp. a given number of a periodical</t>
-  </si>
-  <si>
-    <t>Journal</t>
-  </si>
-  <si>
-    <t>Publication type_25</t>
-  </si>
-  <si>
-    <t>A periodical of scholarly journal Articles.</t>
-  </si>
-  <si>
-    <t>Legal Case Document</t>
-  </si>
-  <si>
-    <t>Publication type_26</t>
-  </si>
-  <si>
-    <t>A document accompanying a legal case.</t>
-  </si>
-  <si>
-    <t>Decision</t>
-  </si>
-  <si>
-    <t>Publication type_27</t>
-  </si>
-  <si>
-    <t>A document containing an authoritative determination (as a decree or judgment) made after consideration of facts or law.</t>
-  </si>
-  <si>
-    <t>Legal Document</t>
-  </si>
-  <si>
-    <t>Publication type_28</t>
-  </si>
-  <si>
-    <t>A legal document; for example, a court decision, a brief, and so forth.</t>
-  </si>
-  <si>
-    <t>Legislation</t>
-  </si>
-  <si>
-    <t>Publication type_29</t>
-  </si>
-  <si>
-    <t>A legal document proposing or enacting a law or a group of laws.</t>
-  </si>
-  <si>
-    <t>Letter</t>
-  </si>
-  <si>
-    <t>Publication type_30</t>
-  </si>
-  <si>
-    <t>A written or printed communication addressed to a person or organization and usually transmitted by mail.</t>
-  </si>
-  <si>
-    <t>Magazine</t>
-  </si>
-  <si>
-    <t>Publication type_31</t>
-  </si>
-  <si>
-    <t>A periodical of magazine Articles. A magazine is a publication that is issued periodically, usually bound in a paper cover, and typically contains essays, stories, poems, etc., by many writers, and often photographs and drawings, frequently specializing in a particular subject or area, as hobbies, news, or sports.</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Publication type_32</t>
-  </si>
-  <si>
-    <t>A small reference book, especially one giving instructions.</t>
+    <t>HEAR</t>
+  </si>
+  <si>
+    <t>PublicationType_31</t>
+  </si>
+  <si>
+    <t>In Press Article</t>
+  </si>
+  <si>
+    <t>INPR</t>
+  </si>
+  <si>
+    <t>PublicationType_32</t>
+  </si>
+  <si>
+    <t>Internet Communication</t>
+  </si>
+  <si>
+    <t>ICOMM</t>
+  </si>
+  <si>
+    <t>PublicationType_33</t>
+  </si>
+  <si>
+    <t>Journal Article</t>
+  </si>
+  <si>
+    <t>JOUR</t>
+  </si>
+  <si>
+    <t>PublicationType_34</t>
+  </si>
+  <si>
+    <t>Legal Rule</t>
+  </si>
+  <si>
+    <t>LEGAL</t>
+  </si>
+  <si>
+    <t>PublicationType_35</t>
+  </si>
+  <si>
+    <t>Magazine Article</t>
+  </si>
+  <si>
+    <t>MGZN</t>
+  </si>
+  <si>
+    <t>PublicationType_36</t>
   </si>
   <si>
     <t>Manuscript</t>
   </si>
   <si>
-    <t>Publication type_33</t>
-  </si>
-  <si>
-    <t>An unpublished Document, which may also be submitted to a publisher for publication.</t>
+    <t>MANSCPT</t>
+  </si>
+  <si>
+    <t>PublicationType_37</t>
   </si>
   <si>
     <t>Map</t>
   </si>
   <si>
-    <t>Publication type_34</t>
-  </si>
-  <si>
-    <t>A graphical depiction of geographic features.</t>
-  </si>
-  <si>
-    <t>Multivolume Book</t>
-  </si>
-  <si>
-    <t>Publication type_35</t>
-  </si>
-  <si>
-    <t>A loose, thematic, collection of Documents, often Books.</t>
-  </si>
-  <si>
-    <t>Newspaper</t>
-  </si>
-  <si>
-    <t>Publication type_36</t>
-  </si>
-  <si>
-    <t>A periodical of documents, usually issued daily or weekly, containing current news, editorials, feature articles, and usually advertising.</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Publication type_37</t>
-  </si>
-  <si>
-    <t>A document describing the exclusive right granted by a government to an inventor to manufacture, use, or sell an invention for a certain number of years.</t>
-  </si>
-  <si>
-    <t>Performance</t>
-  </si>
-  <si>
-    <t>Publication type_38</t>
-  </si>
-  <si>
-    <t>A public performance.</t>
-  </si>
-  <si>
-    <t>Periodical</t>
-  </si>
-  <si>
-    <t>Publication type_39</t>
-  </si>
-  <si>
-    <t>A group of related documents issued at regular intervals.</t>
+    <t>MAP</t>
+  </si>
+  <si>
+    <t>PublicationType_38</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>PublicationType_39</t>
+  </si>
+  <si>
+    <t>Newspaper Article</t>
+  </si>
+  <si>
+    <t>NEWS</t>
+  </si>
+  <si>
+    <t>PublicationType_40</t>
+  </si>
+  <si>
+    <t>Online Database</t>
+  </si>
+  <si>
+    <t>DBASE</t>
+  </si>
+  <si>
+    <t>PublicationType_41</t>
+  </si>
+  <si>
+    <t>Online Multimedia</t>
+  </si>
+  <si>
+    <t>MULTI</t>
+  </si>
+  <si>
+    <t>PublicationType_42</t>
+  </si>
+  <si>
+    <t>Pamphlet</t>
+  </si>
+  <si>
+    <t>PAMP</t>
+  </si>
+  <si>
+    <t>PublicationType_43</t>
+  </si>
+  <si>
+    <t>Patent</t>
+  </si>
+  <si>
+    <t>PAT</t>
+  </si>
+  <si>
+    <t>PublicationType_44</t>
   </si>
   <si>
     <t>Personal Communication</t>
   </si>
   <si>
-    <t>Publication type_40</t>
-  </si>
-  <si>
-    <t>A communication between an agent and one or more specific recipients.</t>
-  </si>
-  <si>
-    <t>Personal Communication Document</t>
-  </si>
-  <si>
-    <t>Publication type_41</t>
-  </si>
-  <si>
-    <t>A personal communication manifested in some document.</t>
-  </si>
-  <si>
-    <t>Proceedings</t>
-  </si>
-  <si>
-    <t>Publication type_42</t>
-  </si>
-  <si>
-    <t>A compilation of documents published from an event, such as a conference.</t>
-  </si>
-  <si>
-    <t>Quote</t>
-  </si>
-  <si>
-    <t>Publication type_43</t>
-  </si>
-  <si>
-    <t>An excerpted collection of words.</t>
-  </si>
-  <si>
-    <t>Reference Source</t>
-  </si>
-  <si>
-    <t>Publication type_44</t>
-  </si>
-  <si>
-    <t>A document that presents authoritative reference information, such as a dictionary or encylopedia.</t>
+    <t>PCOMM</t>
+  </si>
+  <si>
+    <t>PublicationType_45</t>
   </si>
   <si>
     <t>Report</t>
   </si>
   <si>
-    <t>Publication type_45</t>
-  </si>
-  <si>
-    <t>A document describing an account or statement describing in detail an event, situation, or the like, usually as the result of observation, inquiry, etc..</t>
-  </si>
-  <si>
-    <t>Series</t>
-  </si>
-  <si>
-    <t>Publication type_46</t>
+    <t>RPRT</t>
+  </si>
+  <si>
+    <t>PublicationType_46</t>
+  </si>
+  <si>
+    <t>Serial</t>
+  </si>
+  <si>
+    <t>SER</t>
+  </si>
+  <si>
+    <t>PublicationType_47</t>
   </si>
   <si>
     <t>Slide</t>
   </si>
   <si>
-    <t>Publication type_47</t>
-  </si>
-  <si>
-    <t>A slide in a slideshow</t>
-  </si>
-  <si>
-    <t>Slideshow</t>
-  </si>
-  <si>
-    <t>Publication type_48</t>
-  </si>
-  <si>
-    <t>A presentation of a series of slides, usually presented in front of an audience with written text and images.</t>
+    <t>SLIDE</t>
+  </si>
+  <si>
+    <t>PublicationType_48</t>
+  </si>
+  <si>
+    <t>Sound Recording</t>
+  </si>
+  <si>
+    <t>SOUND</t>
+  </si>
+  <si>
+    <t>PublicationType_49</t>
   </si>
   <si>
     <t>Standard</t>
   </si>
   <si>
-    <t>Publication type_49</t>
-  </si>
-  <si>
-    <t>A document describing a standard</t>
+    <t>STAND</t>
+  </si>
+  <si>
+    <t>PublicationType_50</t>
   </si>
   <si>
     <t>Statute</t>
   </si>
   <si>
-    <t>Publication type_50</t>
-  </si>
-  <si>
-    <t>A document created to summarize research findings associated with the completion of an academic degree.</t>
-  </si>
-  <si>
-    <t>Thesis degree</t>
-  </si>
-  <si>
-    <t>Publication type_51</t>
-  </si>
-  <si>
-    <t>The academic degree of a Thesis</t>
-  </si>
-  <si>
-    <t>Webpage</t>
-  </si>
-  <si>
-    <t>Publication type_52</t>
-  </si>
-  <si>
-    <t>A web page is an online document available (at least initially) on the world wide web. A web page is written first and foremost to appear on the web, as distinct from other online resources such as books, manuscripts or audio documents which use the web primarily as a distribution mechanism alongside other more traditional methods such as print.</t>
-  </si>
-  <si>
-    <t>Website</t>
-  </si>
-  <si>
-    <t>Publication type_53</t>
-  </si>
-  <si>
-    <t>A group of Webpages accessible on the Web.</t>
-  </si>
-  <si>
-    <t>Workshop</t>
-  </si>
-  <si>
-    <t>Publication type_54</t>
-  </si>
-  <si>
-    <t>A seminar, discussion group, or the like, that emphasizes zxchange of ideas and the demonstration and application of techniques, skills, etc.</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>Publication type_55</t>
+    <t>STAT</t>
+  </si>
+  <si>
+    <t>PublicationType_51</t>
+  </si>
+  <si>
+    <t>Thesis</t>
+  </si>
+  <si>
+    <t>THES</t>
+  </si>
+  <si>
+    <t>PublicationType_52</t>
+  </si>
+  <si>
+    <t>Unenacted Bill</t>
+  </si>
+  <si>
+    <t>UNBILL</t>
+  </si>
+  <si>
+    <t>PublicationType_53</t>
+  </si>
+  <si>
+    <t>Unpublished Work</t>
+  </si>
+  <si>
+    <t>UNPD</t>
+  </si>
+  <si>
+    <t>PublicationType_54</t>
+  </si>
+  <si>
+    <t>Video Recording</t>
+  </si>
+  <si>
+    <t>VIDEO</t>
+  </si>
+  <si>
+    <t>PublicationType_55</t>
+  </si>
+  <si>
+    <t>Web Page</t>
+  </si>
+  <si>
+    <t>ELEC</t>
+  </si>
+  <si>
+    <t>PublicationType_56</t>
   </si>
 </sst>
 </file>
@@ -1077,108 +1092,118 @@
         <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B48" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B50" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C52" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B55" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C55" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>167</v>
+      </c>
+      <c r="C56" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57"/>
-      <c r="B57"/>
+      <c r="A57" t="s">
+        <v>169</v>
+      </c>
+      <c r="B57" t="s">
+        <v>170</v>
+      </c>
+      <c r="C57" t="s">
+        <v>171</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58"/>
